--- a/biology/Zoologie/Indotriplophysa/Indotriplophysa.xlsx
+++ b/biology/Zoologie/Indotriplophysa/Indotriplophysa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Indotriplophysa est un genre de poissons d'eau douce téléostéens de la famille des Nemacheilidae (ordre des Cypriniformes).
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Maurice Kottelat, en 2012[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Maurice Kottelat, en 2012 :
 Indotriplophysa choprai (Hora, 1934)
 Indotriplophysa crassicauda (Herzenstein, 1888)
 Indotriplophysa eugeniae (Prokofiev, 2002)
@@ -548,10 +562,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Indotriplophysa Prokofiev (d), 2010[2].
-Selon World Register of Marine Species                               (17 novembre 2023)[3], ce genre, bien que valide, ne comporte aucune espèce, puisque la seule mentionnée (Indotriplophysa ladacensis (Günther, 1868)) est acceptée sous le taxon Triplophysa ladacensis (Günther, 1868).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Indotriplophysa Prokofiev (d), 2010.
+Selon World Register of Marine Species                               (17 novembre 2023), ce genre, bien que valide, ne comporte aucune espèce, puisque la seule mentionnée (Indotriplophysa ladacensis (Günther, 1868)) est acceptée sous le taxon Triplophysa ladacensis (Günther, 1868).
 </t>
         </is>
       </c>
@@ -580,9 +596,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Indotriplophysa, qu’EtyFish considère comme un sous-genre du genre Triplophysa, fait référence au bassin de l'Indus[4]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Indotriplophysa, qu’EtyFish considère comme un sous-genre du genre Triplophysa, fait référence au bassin de l'Indus
 </t>
         </is>
       </c>
@@ -611,7 +629,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) A.M. Prokofiev, « Morphological classification of loaches (Nemacheilinae) », Journal of Ichthyology, Russie, vol. 50, no 10,‎ 2010, p. 827-913 (ISSN 0032-9452).</t>
         </is>
